--- a/docs/metaed-project/MetaEdOutput/Documentation/DataDictionary/XmlDataDictionary.xlsx
+++ b/docs/metaed-project/MetaEdOutput/Documentation/DataDictionary/XmlDataDictionary.xlsx
@@ -7308,7 +7308,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E401" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="402">
@@ -7325,7 +7325,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E402" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="403">
@@ -7342,7 +7342,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E403" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="404">
@@ -7359,7 +7359,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E404" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="405">
@@ -7376,7 +7376,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E405" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="406">
@@ -7393,7 +7393,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E406" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="407">
@@ -7410,7 +7410,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E407" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="408">
@@ -7427,7 +7427,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E408" t="str">
-        <v>The date/time the record EntityStatus changed to deleted.</v>
+        <v>The datetime the record EntityStatus was changed to deleted.</v>
       </c>
     </row>
     <row r="409">
@@ -8576,7 +8576,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E475" t="str">
-        <v>The due date/time for the assignment.</v>
+        <v>The date and time the assignment is due.</v>
       </c>
     </row>
     <row r="476">
@@ -11328,7 +11328,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E635" t="str">
-        <v>The end date/time for the assignment. Students will no longer have access to the assignment after this date.</v>
+        <v>The end date and time for the assignment. Students will no longer have access to the assignment after this date.</v>
       </c>
     </row>
     <row r="636">
@@ -12470,7 +12470,7 @@
         <v/>
       </c>
       <c r="E702" t="str">
-        <v>The user's letter or numeric grade for the section enrollment.</v>
+        <v>The user's letter or numeric grade for the section.</v>
       </c>
     </row>
     <row r="703">
@@ -26201,7 +26201,7 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E1499" t="str">
-        <v>The start date/time for the assignment. Students will have access to the assignment after this date.</v>
+        <v>The start date and time for the assignment. Students will have access to the assignment after this date.</v>
       </c>
     </row>
     <row r="1500">
@@ -26510,7 +26510,7 @@
         <v/>
       </c>
       <c r="E1517" t="str">
-        <v>The status of the submission in relation to the late policy.</v>
+        <v>The status of the submission in relation to the late acceptance policy.</v>
       </c>
     </row>
     <row r="1518">
@@ -28412,7 +28412,7 @@
         <v/>
       </c>
       <c r="E1628" t="str">
-        <v>The date/time for the assignment submission.</v>
+        <v>The date and time of the assignment submission.</v>
       </c>
     </row>
     <row r="1629" xml:space="preserve">
@@ -28430,7 +28430,7 @@
 maxOccurs: unbounded</v>
       </c>
       <c r="E1629" t="str">
-        <v>The type or types of submissions available for the assignment.</v>
+        <v>The type(s) of submissions available for the assignment.</v>
       </c>
     </row>
     <row r="1630">
@@ -32227,7 +32227,7 @@
         <v>EXTENSION-AssignmentSubmission</v>
       </c>
       <c r="B163" t="str">
-        <v>A student's submission for an assignment.</v>
+        <v>A user's submission of course work for an assignment.</v>
       </c>
     </row>
     <row r="164">
@@ -32251,7 +32251,7 @@
         <v>EXTENSION-LMSGrade</v>
       </c>
       <c r="B166" t="str">
-        <v>The grade received for a section enrollment.</v>
+        <v>A grade assigned to a user in a section.</v>
       </c>
     </row>
     <row r="167">
@@ -32275,7 +32275,7 @@
         <v>EXTENSION-LMSSection</v>
       </c>
       <c r="B169" t="str">
-        <v>A course section defined in the source system.</v>
+        <v>An organized grouping of course content and users over a period of time for the purpose of providing instruction.</v>
       </c>
     </row>
     <row r="170">
@@ -32299,7 +32299,7 @@
         <v>EXTENSION-User</v>
       </c>
       <c r="B172" t="str">
-        <v>A system user.</v>
+        <v>A person using the instructional system.</v>
       </c>
     </row>
     <row r="173">
@@ -32339,7 +32339,7 @@
         <v>EXTENSION-UserLMSActivity</v>
       </c>
       <c r="B177" t="str">
-        <v>A user's activity events within the source system.</v>
+        <v>An activity performed by a user within the instructional system.</v>
       </c>
     </row>
     <row r="178">
@@ -32363,7 +32363,7 @@
         <v>EXTENSION-UserLMSSectionAssociation</v>
       </c>
       <c r="B180" t="str">
-        <v>The association of a system user and course section. For a student, this would be a section enrollment. For a teacher, this would be a section assignment.</v>
+        <v>The association of a user and section. For a student, this would be a section enrollment. For a teacher, this would be a section assignment.</v>
       </c>
     </row>
     <row r="181">
@@ -37462,7 +37462,7 @@
 maxLength: 20</v>
       </c>
       <c r="C127" t="str">
-        <v>The user's letter or numeric grade for the section enrollment.</v>
+        <v>The user's letter or numeric grade for the section.</v>
       </c>
     </row>
     <row r="128" xml:space="preserve">
